--- a/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCEBAF8-AC69-4E46-B63E-589E7CCC9A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E6D200-AE82-424C-997C-ED522955AB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="98">
   <si>
     <t>Scenario</t>
   </si>
@@ -472,6 +472,12 @@
   </si>
   <si>
     <t>emission_limit</t>
+  </si>
+  <si>
+    <t>BAU</t>
+  </si>
+  <si>
+    <t>unconstrained</t>
   </si>
 </sst>
 </file>
@@ -850,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4BDBC8-04C0-4C73-8BBF-CE8A7DD9E8F0}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,97 +1000,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="2" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="14">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="14">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="14">
         <v>1000</v>
       </c>
     </row>
@@ -1096,273 +1162,429 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="2" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1374,105 +1596,166 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1483,131 +1766,200 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>93</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>90</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
     </row>

--- a/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E6D200-AE82-424C-997C-ED522955AB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFE15DD-DBDA-4F81-910C-512E392F979B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="106">
   <si>
     <t>Scenario</t>
   </si>
@@ -92,9 +92,6 @@
     <t>ED_SOLPV</t>
   </si>
   <si>
-    <t>ED_WIND</t>
-  </si>
-  <si>
     <t>include_baseload</t>
   </si>
   <si>
@@ -171,21 +168,6 @@
   </si>
   <si>
     <t>DIST_COND</t>
-  </si>
-  <si>
-    <t>COAL_TAX</t>
-  </si>
-  <si>
-    <t>DSL_TAX</t>
-  </si>
-  <si>
-    <t>MSW_LF_TAX</t>
-  </si>
-  <si>
-    <t>OIL_TAX</t>
-  </si>
-  <si>
-    <t>NATGAS_TAX</t>
   </si>
   <si>
     <t>EC_DSL_CC</t>
@@ -478,6 +460,88 @@
   </si>
   <si>
     <t>unconstrained</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include_emission_limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - indicate 'Y' to include the constraint from the 'Emission' sheet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include_min_capacity_limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - indicate 'Y' to include the constraint from the 'MinCapacity' sheet</t>
+    </r>
+  </si>
+  <si>
+    <t>include_min_capacity_limit</t>
+  </si>
+  <si>
+    <t>EF_WIND</t>
+  </si>
+  <si>
+    <t>COAL_TAX_ON</t>
+  </si>
+  <si>
+    <t>DSL_TAX_ON</t>
+  </si>
+  <si>
+    <t>MSW_LF_TAX_ON</t>
+  </si>
+  <si>
+    <t>OIL_TAX_ON</t>
+  </si>
+  <si>
+    <t>NATGAS_TAX_ON</t>
+  </si>
+  <si>
+    <t>COAL_TAX_OFF</t>
+  </si>
+  <si>
+    <t>DSL_TAX_OFF</t>
+  </si>
+  <si>
+    <t>MSW_LF_TAX_OFF</t>
+  </si>
+  <si>
+    <t>OIL_TAX_OFF</t>
+  </si>
+  <si>
+    <t>NATGAS_TAX_OFF</t>
   </si>
 </sst>
 </file>
@@ -551,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -573,12 +637,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -854,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4BDBC8-04C0-4C73-8BBF-CE8A7DD9E8F0}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B11:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,10 +960,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -883,113 +975,125 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1000,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1012,67 +1116,67 @@
     <col min="2" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>95</v>
+      <c r="B1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -1086,75 +1190,94 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>39</v>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="14">
-        <v>20</v>
-      </c>
-      <c r="C9" s="14">
-        <v>20</v>
-      </c>
-      <c r="D9" s="14">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="14">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="14">
         <v>1000</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C11" s="14">
         <v>1000</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:XFD9">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1165,7 +1288,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,36 +1297,36 @@
     <col min="2" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>95</v>
+      <c r="B1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
@@ -1211,7 +1334,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
@@ -1219,7 +1342,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
@@ -1227,7 +1350,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
@@ -1235,7 +1358,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
@@ -1243,133 +1366,133 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>58</v>
+      <c r="A12" t="s">
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>60</v>
+      <c r="A14" t="s">
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>61</v>
+      <c r="A16" t="s">
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1"/>
@@ -1377,107 +1500,107 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>56</v>
+      <c r="A18" t="s">
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>48</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>55</v>
+      <c r="A20" t="s">
+        <v>49</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="1"/>
@@ -1485,15 +1608,15 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
+      <c r="A27" t="s">
+        <v>41</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="1"/>
@@ -1501,94 +1624,99 @@
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>22</v>
+      <c r="A30" t="s">
+        <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:XFD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1598,9 +1726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1609,23 +1735,23 @@
     <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>95</v>
+      <c r="B1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1633,21 +1759,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1655,35 +1781,35 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1691,85 +1817,90 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1778,192 +1909,219 @@
     <col min="2" max="4" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>95</v>
+      <c r="B1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
+      <c r="A3" t="s">
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
+      <c r="A6" t="s">
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFE15DD-DBDA-4F81-910C-512E392F979B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3037FF89-76CF-4A0D-96AF-C738373E0DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="97">
   <si>
     <t>Scenario</t>
   </si>
@@ -32,27 +32,9 @@
     <t>EX_COAL</t>
   </si>
   <si>
-    <t>EX_DSL_SIMP</t>
-  </si>
-  <si>
-    <t>EX_DSL_CC</t>
-  </si>
-  <si>
-    <t>EX_OIL_TYPE1</t>
-  </si>
-  <si>
-    <t>EX_OIL_TYPE2</t>
-  </si>
-  <si>
-    <t>EX_OIL_TYPE3</t>
-  </si>
-  <si>
     <t>EX_HYDRO</t>
   </si>
   <si>
-    <t>EX_MSW_LF</t>
-  </si>
-  <si>
     <t>EX_NG_CC</t>
   </si>
   <si>
@@ -83,12 +65,6 @@
     <t>ED_BATT</t>
   </si>
   <si>
-    <t>ED_BIO</t>
-  </si>
-  <si>
-    <t>ED_NG_OC</t>
-  </si>
-  <si>
     <t>ED_SOLPV</t>
   </si>
   <si>
@@ -116,9 +92,6 @@
     <t>COAL</t>
   </si>
   <si>
-    <t>DSL</t>
-  </si>
-  <si>
     <t>HYDRO</t>
   </si>
   <si>
@@ -134,9 +107,6 @@
     <t>WIND</t>
   </si>
   <si>
-    <t>MSW_LF</t>
-  </si>
-  <si>
     <t>include_growth_limit</t>
   </si>
   <si>
@@ -149,9 +119,6 @@
     <t>MinGrowthSeed</t>
   </si>
   <si>
-    <t>ED_NG_CC</t>
-  </si>
-  <si>
     <t>SUB</t>
   </si>
   <si>
@@ -168,9 +135,6 @@
   </si>
   <si>
     <t>DIST_COND</t>
-  </si>
-  <si>
-    <t>EC_DSL_CC</t>
   </si>
   <si>
     <t>EC_OIL_CC</t>
@@ -432,9 +396,6 @@
     <t>E_BECCS</t>
   </si>
   <si>
-    <t>BIOMASS</t>
-  </si>
-  <si>
     <t>BIO_TO_ATM</t>
   </si>
   <si>
@@ -451,9 +412,6 @@
   </si>
   <si>
     <t>E_PV_DIST_RES</t>
-  </si>
-  <si>
-    <t>emission_limit</t>
   </si>
   <si>
     <t>BAU</t>
@@ -517,12 +475,6 @@
     <t>COAL_TAX_ON</t>
   </si>
   <si>
-    <t>DSL_TAX_ON</t>
-  </si>
-  <si>
-    <t>MSW_LF_TAX_ON</t>
-  </si>
-  <si>
     <t>OIL_TAX_ON</t>
   </si>
   <si>
@@ -532,16 +484,37 @@
     <t>COAL_TAX_OFF</t>
   </si>
   <si>
-    <t>DSL_TAX_OFF</t>
-  </si>
-  <si>
-    <t>MSW_LF_TAX_OFF</t>
-  </si>
-  <si>
     <t>OIL_TAX_OFF</t>
   </si>
   <si>
     <t>NATGAS_TAX_OFF</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>BECCS</t>
+  </si>
+  <si>
+    <t>OCAES</t>
+  </si>
+  <si>
+    <t>DIST_PV</t>
+  </si>
+  <si>
+    <t>sCO2</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>EX_OIL</t>
+  </si>
+  <si>
+    <t>EX_NG_GT_ST</t>
+  </si>
+  <si>
+    <t>EX_BIO</t>
   </si>
 </sst>
 </file>
@@ -641,7 +614,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -960,10 +1003,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -975,125 +1018,125 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1104,79 +1147,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I1" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -1187,66 +1288,141 @@
       <c r="D5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B10" s="14">
         <v>20</v>
@@ -1257,10 +1433,25 @@
       <c r="D10" s="14">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="14">
+        <v>20</v>
+      </c>
+      <c r="F10" s="14">
+        <v>20</v>
+      </c>
+      <c r="G10" s="14">
+        <v>20</v>
+      </c>
+      <c r="H10" s="14">
+        <v>20</v>
+      </c>
+      <c r="I10" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B11" s="14">
         <v>1000</v>
@@ -1271,10 +1462,50 @@
       <c r="D11" s="14">
         <v>1000</v>
       </c>
+      <c r="E11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:XFD9">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:C9 J2:XFD9 E2:E9">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F9">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G9">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H9">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I9">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D9">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1285,435 +1516,793 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A30"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I1" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:C1048576 E2:XFD1048576">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D1048576">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D23">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1724,170 +2313,297 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I1" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="B10:XFD1048576 B3:C9 E3:XFD9 J2:XFD2">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D9">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C2 E2:I2">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1897,228 +2613,364 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.88671875" customWidth="1"/>
+    <col min="2" max="9" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I1" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3037FF89-76CF-4A0D-96AF-C738373E0DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1C20C2-631E-4071-B67B-FB3643AE6098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="98">
   <si>
     <t>Scenario</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>EX_BIO</t>
+  </si>
+  <si>
+    <t>OFFSHORE_TRANS</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2598,12 +2601,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 E2:I2">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2613,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2913,12 +2916,27 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
       <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
         <v>17</v>
       </c>
       <c r="I15" t="s">
@@ -2927,50 +2945,64 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>70</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>71</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1C20C2-631E-4071-B67B-FB3643AE6098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DDB7D5-7755-46D8-84B9-4AB3EB7984E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -511,13 +511,13 @@
     <t>EX_OIL</t>
   </si>
   <si>
-    <t>EX_NG_GT_ST</t>
-  </si>
-  <si>
     <t>EX_BIO</t>
   </si>
   <si>
     <t>OFFSHORE_TRANS</t>
+  </si>
+  <si>
+    <t>EX_NG_CT</t>
   </si>
 </sst>
 </file>
@@ -1521,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -2618,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15:I15"/>
     </sheetView>
   </sheetViews>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>

--- a/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DDB7D5-7755-46D8-84B9-4AB3EB7984E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4783B8-AB98-4542-B6C4-1C42A3ACA60C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="95">
   <si>
     <t>Scenario</t>
   </si>
@@ -396,9 +396,6 @@
     <t>E_BECCS</t>
   </si>
   <si>
-    <t>BIO_TO_ATM</t>
-  </si>
-  <si>
     <t>BIO_TO_CCS</t>
   </si>
   <si>
@@ -412,12 +409,6 @@
   </si>
   <si>
     <t>E_PV_DIST_RES</t>
-  </si>
-  <si>
-    <t>BAU</t>
-  </si>
-  <si>
-    <t>unconstrained</t>
   </si>
   <si>
     <r>
@@ -994,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4BDBC8-04C0-4C73-8BBF-CE8A7DD9E8F0}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1061,13 +1052,13 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1150,48 +1141,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1213,14 +1198,8 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1242,14 +1221,8 @@
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1271,14 +1244,8 @@
       <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1300,14 +1267,8 @@
       <c r="G5">
         <v>30</v>
       </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1329,22 +1290,16 @@
       <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1358,16 +1313,10 @@
       <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -1387,14 +1336,8 @@
       <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1416,14 +1359,8 @@
       <c r="G9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>29</v>
       </c>
@@ -1445,14 +1382,8 @@
       <c r="G10" s="14">
         <v>20</v>
       </c>
-      <c r="H10" s="14">
-        <v>20</v>
-      </c>
-      <c r="I10" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -1474,40 +1405,34 @@
       <c r="G11" s="14">
         <v>1000</v>
       </c>
-      <c r="H11" s="14">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="14">
-        <v>1000</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C9 J2:XFD9 E2:E9">
+  <conditionalFormatting sqref="H2:XFD9 C2:C9">
     <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
+  <conditionalFormatting sqref="D2:D9">
     <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9">
+  <conditionalFormatting sqref="E2:E9">
     <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
+  <conditionalFormatting sqref="G2:G9">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
+  <conditionalFormatting sqref="B2:B9">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -1519,48 +1444,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="B1:B1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1582,16 +1501,10 @@
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -1611,14 +1524,8 @@
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1640,14 +1547,8 @@
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1669,16 +1570,10 @@
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -1698,14 +1593,8 @@
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1727,14 +1616,8 @@
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1756,14 +1639,8 @@
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1785,16 +1662,10 @@
       <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>95</v>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -1814,15 +1685,9 @@
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1843,15 +1708,9 @@
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1872,15 +1731,9 @@
       <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1901,43 +1754,19 @@
       <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1959,14 +1788,8 @@
       <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1988,14 +1811,8 @@
       <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2017,14 +1834,8 @@
       <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2046,14 +1857,8 @@
       <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2075,14 +1880,8 @@
       <c r="G19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2104,14 +1903,8 @@
       <c r="G20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2133,14 +1926,8 @@
       <c r="G21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2162,16 +1949,10 @@
       <c r="G22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -2191,49 +1972,36 @@
       <c r="G23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -2241,11 +2009,8 @@
       <c r="E26" t="s">
         <v>17</v>
       </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -2267,14 +2032,8 @@
       <c r="G27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -2282,29 +2041,25 @@
       <c r="C28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C1048576 E2:XFD1048576">
+  <conditionalFormatting sqref="C2:XFD1048576">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D1048576">
+  <conditionalFormatting sqref="B24:B1048576">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D23">
+  <conditionalFormatting sqref="B2:B23">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2316,48 +2071,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" activeCellId="1" sqref="B1:B1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2379,14 +2128,8 @@
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -2408,14 +2151,8 @@
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2437,14 +2174,8 @@
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2466,14 +2197,8 @@
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2495,14 +2220,8 @@
       <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -2524,14 +2243,8 @@
       <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2553,14 +2266,8 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2582,30 +2289,24 @@
       <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:XFD1048576 B3:C9 E3:XFD9 J2:XFD2">
+  <conditionalFormatting sqref="C3:XFD9 H2:XFD2 B10:XFD1048576">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D9">
+  <conditionalFormatting sqref="B3:B9">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2 E2:I2">
+  <conditionalFormatting sqref="C2:G2">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="B2">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2616,48 +2317,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:I15"/>
+      <selection activeCell="C1" activeCellId="1" sqref="B1:B1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2679,14 +2374,8 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2708,14 +2397,8 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2737,14 +2420,8 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2766,14 +2443,8 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2795,100 +2466,82 @@
       <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>87</v>
-      </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -2907,16 +2560,10 @@
       <c r="G14" t="s">
         <v>17</v>
       </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -2936,67 +2583,26 @@
       <c r="G15" t="s">
         <v>17</v>
       </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>70</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
         <v>17</v>
       </c>
     </row>

--- a/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4783B8-AB98-4542-B6C4-1C42A3ACA60C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B556DEF-1269-4200-BCA4-0967D0556A48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="94">
   <si>
     <t>Scenario</t>
   </si>
@@ -388,9 +388,6 @@
   </si>
   <si>
     <t>include_emission_limit</t>
-  </si>
-  <si>
-    <t>E_BIO</t>
   </si>
   <si>
     <t>E_BECCS</t>
@@ -608,7 +605,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -985,7 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4BDBC8-04C0-4C73-8BBF-CE8A7DD9E8F0}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1052,13 +1056,13 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1158,22 +1162,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1316,7 +1320,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -1408,32 +1412,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:XFD9 C2:C9">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D9">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E9">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F9">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G9">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1444,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="B1:B1048576 C1:C1048576"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1461,22 +1465,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1504,7 +1508,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -1573,7 +1577,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -1665,7 +1669,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -1759,12 +1763,24 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1952,7 +1968,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -1975,7 +1991,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -1990,7 +2006,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -2001,7 +2017,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -2014,52 +2030,34 @@
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:XFD1048576">
+  <conditionalFormatting sqref="C2:XFD13 H14:XFD14 C15:XFD1048576 B24:B1048576">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B13 B15:B23">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B1048576">
+  <conditionalFormatting sqref="C14:G14">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B23">
+  <conditionalFormatting sqref="B14">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2088,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2319,7 +2317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" activeCellId="1" sqref="B1:B1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -2334,22 +2332,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2479,22 +2477,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -2517,7 +2515,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -2540,7 +2538,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -2563,7 +2561,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -2586,7 +2584,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -2597,7 +2595,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>

--- a/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B556DEF-1269-4200-BCA4-0967D0556A48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E95630-513E-4D21-820C-42792039495A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>Scenario</t>
   </si>
@@ -478,24 +478,6 @@
     <t>NATGAS_TAX_OFF</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>BECCS</t>
-  </si>
-  <si>
-    <t>OCAES</t>
-  </si>
-  <si>
-    <t>DIST_PV</t>
-  </si>
-  <si>
-    <t>sCO2</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>EX_OIL</t>
   </si>
   <si>
@@ -506,6 +488,18 @@
   </si>
   <si>
     <t>EX_NG_CT</t>
+  </si>
+  <si>
+    <t>woEmerg_woFossil</t>
+  </si>
+  <si>
+    <t>wEmerg_wFossil</t>
+  </si>
+  <si>
+    <t>woEmerg_wFossil</t>
+  </si>
+  <si>
+    <t>wEmerg_woFossil</t>
   </si>
 </sst>
 </file>
@@ -605,7 +599,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1145,42 +1202,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="13.88671875" customWidth="1"/>
+    <col min="2" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1196,14 +1247,8 @@
       <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1219,14 +1264,8 @@
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1242,14 +1281,8 @@
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1265,14 +1298,8 @@
       <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1288,14 +1315,8 @@
       <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1311,14 +1332,8 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -1334,14 +1349,8 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1357,14 +1366,8 @@
       <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>29</v>
       </c>
@@ -1380,14 +1383,8 @@
       <c r="E10" s="14">
         <v>20</v>
       </c>
-      <c r="F10" s="14">
-        <v>20</v>
-      </c>
-      <c r="G10" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -1403,41 +1400,25 @@
       <c r="E11" s="14">
         <v>1000</v>
       </c>
-      <c r="F11" s="14">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="14">
-        <v>1000</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:XFD9 C2:C9">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+  <conditionalFormatting sqref="E2:XFD9">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B9">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D9">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B9">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1448,42 +1429,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="13.88671875" customWidth="1"/>
+    <col min="2" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1499,16 +1474,10 @@
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -1522,14 +1491,8 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1545,14 +1508,8 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1568,16 +1525,10 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -1591,14 +1542,8 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1614,14 +1559,8 @@
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1637,14 +1576,8 @@
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1660,16 +1593,10 @@
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -1683,14 +1610,8 @@
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1706,14 +1627,8 @@
       <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1729,14 +1644,8 @@
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1752,14 +1661,8 @@
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1775,106 +1678,60 @@
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1890,14 +1747,8 @@
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1913,14 +1764,8 @@
       <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1936,14 +1781,8 @@
       <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1959,14 +1798,8 @@
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1982,83 +1815,99 @@
       <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:XFD13 H14:XFD14 C15:XFD1048576 B24:B1048576">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+  <conditionalFormatting sqref="F14:XFD14 B28:D1048576 E2:XFD13 E15:XFD1048576 B24 B25:C27">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B13 B15:B23">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:G14">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C13 C15:C23">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D13 D15:D27">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2069,42 +1918,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="B1:B1048576 C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="13.88671875" customWidth="1"/>
+    <col min="2" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2120,14 +1963,8 @@
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -2143,14 +1980,8 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2166,14 +1997,8 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2189,14 +2014,8 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2212,14 +2031,8 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -2235,14 +2048,8 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2258,14 +2065,8 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2281,31 +2082,45 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:XFD9 H2:XFD2 B10:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+  <conditionalFormatting sqref="F2:XFD2 E3:XFD9 B10:XFD1048576">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B9">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:G2">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C9">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D9">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2315,42 +2130,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="B1:B1048576 C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="13.88671875" customWidth="1"/>
+    <col min="2" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2366,14 +2175,8 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2389,14 +2192,8 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2412,14 +2209,8 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2435,14 +2226,8 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2458,39 +2243,33 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -2506,14 +2285,8 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -2529,14 +2302,8 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2552,16 +2319,10 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -2575,37 +2336,38 @@
       <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>72</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:XFD1048576">
+  <conditionalFormatting sqref="B18:XFD1048576 B2:B17 E2:XFD17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>

--- a/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E95630-513E-4D21-820C-42792039495A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202253E1-B4CF-491E-817B-C3BD95C4C4A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>Scenario</t>
   </si>
@@ -1204,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -1431,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1769,18 +1769,10 @@
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">

--- a/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202253E1-B4CF-491E-817B-C3BD95C4C4A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0748F310-B88D-4891-BDA1-9CAA51531746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="106">
   <si>
     <t>Scenario</t>
   </si>
@@ -390,22 +390,13 @@
     <t>include_emission_limit</t>
   </si>
   <si>
-    <t>E_BECCS</t>
-  </si>
-  <si>
     <t>BIO_TO_CCS</t>
   </si>
   <si>
     <t>E_OCAES</t>
   </si>
   <si>
-    <t>E_SCO2</t>
-  </si>
-  <si>
     <t>NATGAS_TO_CCS</t>
-  </si>
-  <si>
-    <t>E_PV_DIST_RES</t>
   </si>
   <si>
     <r>
@@ -490,16 +481,67 @@
     <t>EX_NG_CT</t>
   </si>
   <si>
-    <t>woEmerg_woFossil</t>
-  </si>
-  <si>
-    <t>wEmerg_wFossil</t>
-  </si>
-  <si>
-    <t>woEmerg_wFossil</t>
-  </si>
-  <si>
-    <t>wEmerg_woFossil</t>
+    <t>COAL_TO_CCS</t>
+  </si>
+  <si>
+    <t>NATGAS_TO_DAC</t>
+  </si>
+  <si>
+    <t>EC_COAL_IGCC</t>
+  </si>
+  <si>
+    <t>EC_COAL_CCS</t>
+  </si>
+  <si>
+    <t>EC_BATT_2hr</t>
+  </si>
+  <si>
+    <t>EC_NUCLEAR</t>
+  </si>
+  <si>
+    <t>EC_DAC</t>
+  </si>
+  <si>
+    <t>EC_VFB</t>
+  </si>
+  <si>
+    <t>EC_BECCS</t>
+  </si>
+  <si>
+    <t>EC_PV_DIST_RES</t>
+  </si>
+  <si>
+    <t>EC_NATGAS_CCS</t>
+  </si>
+  <si>
+    <t>EC_H2</t>
+  </si>
+  <si>
+    <t>woEmerg_woFossil_woNuclear</t>
+  </si>
+  <si>
+    <t>woEmerg_wFossil_woNuclear</t>
+  </si>
+  <si>
+    <t>wEmerg_woFossil_woNuclear</t>
+  </si>
+  <si>
+    <t>wEmerg_wFossil_woNuclear</t>
+  </si>
+  <si>
+    <t>woEmerg_woFossil_wNuclear</t>
+  </si>
+  <si>
+    <t>woEmerg_wFossil_wNuclear</t>
+  </si>
+  <si>
+    <t>wEmerg_woFossil_wNuclear</t>
+  </si>
+  <si>
+    <t>wEmerg_wFossil_wNuclear</t>
+  </si>
+  <si>
+    <t>DAC_TO_DEMAND</t>
   </si>
 </sst>
 </file>
@@ -523,7 +565,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +602,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -573,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -595,11 +643,166 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1113,13 +1316,13 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1202,36 +1405,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="17.33203125" customWidth="1"/>
+    <col min="2" max="9" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1247,8 +1462,20 @@
       <c r="E2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1258,14 +1485,26 @@
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1281,8 +1520,20 @@
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1298,8 +1549,20 @@
       <c r="E5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1315,8 +1578,20 @@
       <c r="E6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1332,10 +1607,22 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -1349,8 +1636,20 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1366,8 +1665,20 @@
       <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>29</v>
       </c>
@@ -1383,8 +1694,20 @@
       <c r="E10" s="14">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="14">
+        <v>20</v>
+      </c>
+      <c r="G10" s="14">
+        <v>20</v>
+      </c>
+      <c r="H10" s="14">
+        <v>20</v>
+      </c>
+      <c r="I10" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -1400,25 +1723,57 @@
       <c r="E11" s="14">
         <v>1000</v>
       </c>
+      <c r="F11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:XFD9">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+  <conditionalFormatting sqref="E2:E9 J2:XFD9">
+    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C9">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D9">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I9">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F9">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G9">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H9">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1429,36 +1784,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="17.33203125" customWidth="1"/>
+    <col min="2" max="9" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1474,10 +1841,22 @@
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -1491,8 +1870,20 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1508,8 +1899,20 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1525,10 +1928,22 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -1542,8 +1957,20 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1559,8 +1986,20 @@
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1576,8 +2015,20 @@
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1593,10 +2044,22 @@
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -1610,8 +2073,20 @@
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1627,8 +2102,20 @@
       <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1644,8 +2131,20 @@
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1661,8 +2160,20 @@
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1678,8 +2189,20 @@
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1691,8 +2214,16 @@
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1704,8 +2235,16 @@
       <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1717,8 +2256,16 @@
       <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1730,8 +2277,16 @@
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1747,8 +2302,20 @@
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1764,8 +2331,20 @@
       <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1773,8 +2352,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1790,10 +2373,22 @@
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -1807,10 +2402,22 @@
       <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>73</v>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
@@ -1824,82 +2431,301 @@
       <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>71</v>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>68</v>
+      <c r="G26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F14:XFD14 B28:D1048576 E2:XFD13 E15:XFD1048576 B24 B25:C27">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+  <conditionalFormatting sqref="B28:D34 E2:E13 E15:E34 B24 B25:C27 B35:E1048576 J2:XFD1048576">
+    <cfRule type="cellIs" dxfId="37" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B13 B15:B23">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13 C15:C23">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13 D15:D27">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:H34 I2:I13 I15:I34 F24 F25:G27 F35:I1048576">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F13 F15:F23">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G13 G15:G23">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H13 H15:H27">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1910,36 +2736,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="17.33203125" customWidth="1"/>
+    <col min="2" max="9" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1955,8 +2793,20 @@
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1972,8 +2822,20 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1989,8 +2851,20 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2006,8 +2880,20 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2023,8 +2909,20 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -2040,8 +2938,20 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2057,8 +2967,20 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2074,45 +2996,97 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:XFD2 E3:XFD9 B10:XFD1048576">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+  <conditionalFormatting sqref="E3:E9 B10:XFD1048576 J2:XFD9">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B9">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C9">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D9">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I9">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F9">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G9">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H9">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2122,36 +3096,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="17.33203125" customWidth="1"/>
+    <col min="2" max="9" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2167,8 +3153,20 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2184,8 +3182,20 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2201,8 +3211,20 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2218,8 +3240,20 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2235,131 +3269,262 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>83</v>
       </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>86</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B18:XFD1048576 B2:B17 E2:XFD17">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C17">
+  <conditionalFormatting sqref="B2:E19 J2:XFD1048576 B21:E1048576 B20:C20">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:I19 F21:I1048576">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D17">
+  <conditionalFormatting sqref="F20:I20">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>

--- a/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0748F310-B88D-4891-BDA1-9CAA51531746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9298683-C638-4C76-AA45-F708D0C17C7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="102">
   <si>
     <t>Scenario</t>
   </si>
@@ -508,40 +508,28 @@
     <t>EC_BECCS</t>
   </si>
   <si>
-    <t>EC_PV_DIST_RES</t>
-  </si>
-  <si>
     <t>EC_NATGAS_CCS</t>
   </si>
   <si>
     <t>EC_H2</t>
   </si>
   <si>
-    <t>woEmerg_woFossil_woNuclear</t>
-  </si>
-  <si>
-    <t>woEmerg_wFossil_woNuclear</t>
-  </si>
-  <si>
-    <t>wEmerg_woFossil_woNuclear</t>
-  </si>
-  <si>
-    <t>wEmerg_wFossil_woNuclear</t>
-  </si>
-  <si>
-    <t>woEmerg_woFossil_wNuclear</t>
-  </si>
-  <si>
-    <t>woEmerg_wFossil_wNuclear</t>
-  </si>
-  <si>
-    <t>wEmerg_woFossil_wNuclear</t>
-  </si>
-  <si>
-    <t>wEmerg_wFossil_wNuclear</t>
-  </si>
-  <si>
     <t>DAC_TO_DEMAND</t>
+  </si>
+  <si>
+    <t>woEmerg_woFossil</t>
+  </si>
+  <si>
+    <t>woEmerg_wFossil</t>
+  </si>
+  <si>
+    <t>wEmerg_woFossil</t>
+  </si>
+  <si>
+    <t>wEmerg_wFossil</t>
+  </si>
+  <si>
+    <t>ED_PV_DIST_RES</t>
   </si>
 </sst>
 </file>
@@ -648,168 +636,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -1405,19 +1232,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1433,20 +1262,8 @@
       <c r="E1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1462,20 +1279,8 @@
       <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1491,20 +1296,8 @@
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1520,20 +1313,8 @@
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1549,20 +1330,8 @@
       <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1578,20 +1347,8 @@
       <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1607,20 +1364,8 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -1636,20 +1381,8 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1665,20 +1398,8 @@
       <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>29</v>
       </c>
@@ -1694,20 +1415,8 @@
       <c r="E10" s="14">
         <v>20</v>
       </c>
-      <c r="F10" s="14">
-        <v>20</v>
-      </c>
-      <c r="G10" s="14">
-        <v>20</v>
-      </c>
-      <c r="H10" s="14">
-        <v>20</v>
-      </c>
-      <c r="I10" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -1723,57 +1432,25 @@
       <c r="E11" s="14">
         <v>1000</v>
       </c>
-      <c r="F11" s="14">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="14">
-        <v>1000</v>
-      </c>
-      <c r="H11" s="14">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="14">
-        <v>1000</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E9 J2:XFD9">
-    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
+  <conditionalFormatting sqref="E2:XFD9">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C9">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D9">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1784,19 +1461,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1812,20 +1491,8 @@
       <c r="E1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1841,20 +1508,8 @@
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1870,20 +1525,8 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1899,20 +1542,8 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1928,20 +1559,8 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -1957,20 +1576,8 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1986,20 +1593,8 @@
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2015,20 +1610,8 @@
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2044,20 +1627,8 @@
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -2073,20 +1644,8 @@
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -2102,20 +1661,8 @@
       <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -2131,20 +1678,8 @@
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -2160,20 +1695,8 @@
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2189,20 +1712,8 @@
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2214,16 +1725,8 @@
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2235,16 +1738,8 @@
       <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2256,16 +1751,8 @@
       <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2277,16 +1764,8 @@
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2302,20 +1781,8 @@
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2331,20 +1798,8 @@
       <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2352,12 +1807,8 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2373,20 +1824,8 @@
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -2402,20 +1841,8 @@
       <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>89</v>
       </c>
@@ -2431,20 +1858,8 @@
       <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>88</v>
       </c>
@@ -2454,14 +1869,8 @@
       <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>87</v>
       </c>
@@ -2471,16 +1880,10 @@
       <c r="E26" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
@@ -2490,37 +1893,17 @@
       <c r="E27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>90</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -2534,20 +1917,8 @@
       <c r="E29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -2558,15 +1929,8 @@
       <c r="E30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -2577,17 +1941,10 @@
       <c r="E31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
@@ -2596,15 +1953,8 @@
       <c r="E32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -2614,14 +1964,8 @@
       <c r="E33" t="s">
         <v>17</v>
       </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -2631,101 +1975,50 @@
       <c r="E34" t="s">
         <v>17</v>
       </c>
-      <c r="H34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B28:D34 E2:E13 E15:E34 B24 B25:C27 B35:E1048576 J2:XFD1048576">
-    <cfRule type="cellIs" dxfId="37" priority="21" operator="equal">
+  <conditionalFormatting sqref="B28:D34 E2:E13 E15:E34 B24 B25:C27 B35:E1048576 F2:XFD1048576">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B13 B15:B23">
-    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13 C15:C23">
-    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13 D15:D27">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28:H34 I2:I13 I15:I34 F24 F25:G27 F35:I1048576">
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F13 F15:F23">
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G13 G15:G23">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H13 H15:H27">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2736,19 +2029,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2764,20 +2059,8 @@
       <c r="E1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2793,20 +2076,8 @@
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -2822,20 +2093,8 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2851,20 +2110,8 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2880,20 +2127,8 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2909,20 +2144,8 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -2938,20 +2161,8 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2967,20 +2178,8 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2996,97 +2195,45 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:E9 B10:XFD1048576 J2:XFD9">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+  <conditionalFormatting sqref="E3:E9 F2:XFD9 B10:XFD1048576">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B9">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C9">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D9">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I9">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F9">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G9">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H9">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3096,19 +2243,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3124,20 +2273,8 @@
       <c r="E1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3153,20 +2290,8 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3182,20 +2307,8 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -3211,20 +2324,8 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -3240,20 +2341,8 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3269,45 +2358,33 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -3323,20 +2400,8 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -3352,20 +2417,8 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -3381,20 +2434,8 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -3410,20 +2451,8 @@
       <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -3433,14 +2462,8 @@
       <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -3450,14 +2473,8 @@
       <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -3467,14 +2484,8 @@
       <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -3484,16 +2495,10 @@
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -3501,31 +2506,15 @@
       <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:E19 J2:XFD1048576 B21:E1048576 B20:C20">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:I19 F21:I1048576">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+  <conditionalFormatting sqref="B2:E19 F2:XFD1048576 B21:E1048576 B20:C20">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:I20">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/scenarios_emerging_tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9298683-C638-4C76-AA45-F708D0C17C7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BCD793-9963-4A73-9D00-53FF920F8FEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="102">
   <si>
     <t>Scenario</t>
   </si>
@@ -1234,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1463,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1947,12 +1947,8 @@
         <v>95</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
